--- a/database/industries/palayesh/shetran/product/yearly_seprated.xlsx
+++ b/database/industries/palayesh/shetran/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shetran\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\palayesh\shetran\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463EE2D6-B870-4838-B231-218837F89C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834DB03F-A658-4609-942B-DE77DDFD87F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="57">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -61,19 +61,19 @@
     <t>متر مکعب</t>
   </si>
   <si>
+    <t>نفت سفید</t>
+  </si>
+  <si>
+    <t>گوگرد</t>
+  </si>
+  <si>
+    <t>گاز مایع</t>
+  </si>
+  <si>
+    <t>بوتان</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>نفت سفید</t>
-  </si>
-  <si>
-    <t>گوگرد</t>
-  </si>
-  <si>
-    <t>گاز مایع</t>
-  </si>
-  <si>
-    <t>بوتان</t>
   </si>
   <si>
     <t>نفتای سبک و سنگین</t>
@@ -673,12 +673,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -688,7 +688,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -700,7 +700,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -712,7 +712,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -722,7 +722,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -746,7 +746,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -756,7 +756,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -778,7 +778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -788,7 +788,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -808,119 +808,119 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>1261433</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1091759</v>
+      </c>
+      <c r="G11" s="11">
+        <v>971262</v>
+      </c>
+      <c r="H11" s="11">
+        <v>892534</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1046201</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1261433</v>
-      </c>
-      <c r="G11" s="11">
-        <v>1091759</v>
-      </c>
-      <c r="H11" s="11">
-        <v>971262</v>
-      </c>
-      <c r="I11" s="11">
-        <v>892534</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>276693</v>
       </c>
       <c r="F12" s="13">
-        <v>276693</v>
+        <v>249706</v>
       </c>
       <c r="G12" s="13">
-        <v>249706</v>
+        <v>131054</v>
       </c>
       <c r="H12" s="13">
-        <v>131054</v>
+        <v>74985</v>
       </c>
       <c r="I12" s="13">
-        <v>74985</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62785</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>23432</v>
       </c>
       <c r="F13" s="11">
-        <v>23432</v>
+        <v>25131</v>
       </c>
       <c r="G13" s="11">
-        <v>25131</v>
+        <v>24171</v>
       </c>
       <c r="H13" s="11">
-        <v>24171</v>
+        <v>32727</v>
       </c>
       <c r="I13" s="11">
-        <v>32727</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>38052</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="13">
+        <v>582098</v>
       </c>
       <c r="F14" s="13">
-        <v>582098</v>
+        <v>523501</v>
       </c>
       <c r="G14" s="13">
-        <v>523501</v>
+        <v>576797</v>
       </c>
       <c r="H14" s="13">
-        <v>576797</v>
+        <v>484504</v>
       </c>
       <c r="I14" s="13">
-        <v>484504</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>493287</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="H15" s="11">
+        <v>918</v>
       </c>
       <c r="I15" s="11">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -928,23 +928,23 @@
         <v>12</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>13</v>
+      <c r="E16" s="13">
+        <v>203383</v>
       </c>
       <c r="F16" s="13">
-        <v>203383</v>
+        <v>117367</v>
       </c>
       <c r="G16" s="13">
-        <v>117367</v>
+        <v>158688</v>
       </c>
       <c r="H16" s="13">
-        <v>158688</v>
+        <v>365468</v>
       </c>
       <c r="I16" s="13">
-        <v>365468</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>322878</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -952,23 +952,23 @@
         <v>12</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>13</v>
+      <c r="E17" s="11">
+        <v>30075</v>
       </c>
       <c r="F17" s="11">
-        <v>30075</v>
+        <v>8743</v>
       </c>
       <c r="G17" s="11">
-        <v>8743</v>
+        <v>12630</v>
       </c>
       <c r="H17" s="11">
-        <v>12630</v>
+        <v>3401</v>
       </c>
       <c r="I17" s="11">
-        <v>3401</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -976,23 +976,23 @@
         <v>12</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>13</v>
+      <c r="E18" s="13">
+        <v>2133638</v>
       </c>
       <c r="F18" s="13">
-        <v>2133638</v>
+        <v>2255208</v>
       </c>
       <c r="G18" s="13">
-        <v>2255208</v>
+        <v>2312884</v>
       </c>
       <c r="H18" s="13">
-        <v>2312884</v>
+        <v>2419245</v>
       </c>
       <c r="I18" s="13">
-        <v>2419245</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2491242</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1000,23 +1000,23 @@
         <v>12</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>13</v>
+      <c r="E19" s="11">
+        <v>2450906</v>
       </c>
       <c r="F19" s="11">
-        <v>2450906</v>
+        <v>2317963</v>
       </c>
       <c r="G19" s="11">
-        <v>2317963</v>
+        <v>2591462</v>
       </c>
       <c r="H19" s="11">
-        <v>2591462</v>
+        <v>2197084</v>
       </c>
       <c r="I19" s="11">
-        <v>2197084</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2299585</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
@@ -1024,23 +1024,23 @@
         <v>12</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>13</v>
+      <c r="E20" s="13">
+        <v>17700</v>
       </c>
       <c r="F20" s="13">
-        <v>17700</v>
+        <v>20276</v>
       </c>
       <c r="G20" s="13">
-        <v>20276</v>
+        <v>29400</v>
       </c>
       <c r="H20" s="13">
-        <v>29400</v>
+        <v>13178</v>
       </c>
       <c r="I20" s="13">
-        <v>13178</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12978</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1048,23 +1048,23 @@
         <v>12</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>13</v>
+      <c r="E21" s="11">
+        <v>881713</v>
       </c>
       <c r="F21" s="11">
-        <v>881713</v>
+        <v>684483</v>
       </c>
       <c r="G21" s="11">
-        <v>684483</v>
+        <v>520245</v>
       </c>
       <c r="H21" s="11">
-        <v>520245</v>
+        <v>741703</v>
       </c>
       <c r="I21" s="11">
-        <v>741703</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>631361</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
@@ -1072,23 +1072,23 @@
         <v>12</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
-        <v>13</v>
+      <c r="E22" s="13">
+        <v>848777</v>
       </c>
       <c r="F22" s="13">
-        <v>848777</v>
+        <v>793267</v>
       </c>
       <c r="G22" s="13">
-        <v>793267</v>
+        <v>832532</v>
       </c>
       <c r="H22" s="13">
-        <v>832532</v>
+        <v>823381</v>
       </c>
       <c r="I22" s="13">
-        <v>823381</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+        <v>909597</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1096,45 +1096,45 @@
         <v>12</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>13</v>
+      <c r="E23" s="11">
+        <v>5037555</v>
       </c>
       <c r="F23" s="11">
-        <v>5037555</v>
+        <v>5255695</v>
       </c>
       <c r="G23" s="11">
-        <v>5255695</v>
+        <v>5100620</v>
       </c>
       <c r="H23" s="11">
-        <v>5100620</v>
+        <v>4702523</v>
       </c>
       <c r="I23" s="11">
-        <v>4702523</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5261503</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15">
-        <v>0</v>
+        <v>13747403</v>
       </c>
       <c r="F24" s="15">
-        <v>13747403</v>
+        <v>13343099</v>
       </c>
       <c r="G24" s="15">
-        <v>13343099</v>
+        <v>13261745</v>
       </c>
       <c r="H24" s="15">
-        <v>13261745</v>
+        <v>12751651</v>
       </c>
       <c r="I24" s="15">
-        <v>12751651</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13570286</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>27</v>
       </c>
@@ -1146,7 +1146,7 @@
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>28</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>29</v>
       </c>
@@ -1180,7 +1180,7 @@
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>31</v>
       </c>
@@ -1210,8 +1210,8 @@
         <v>32</v>
       </c>
       <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
-        <v>13</v>
+      <c r="E29" s="15">
+        <v>0</v>
       </c>
       <c r="F29" s="15">
         <v>0</v>
@@ -1219,21 +1219,21 @@
       <c r="G29" s="15">
         <v>0</v>
       </c>
-      <c r="H29" s="15">
-        <v>0</v>
+      <c r="H29" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="19" t="s">
-        <v>13</v>
+      <c r="E30" s="19">
+        <v>0</v>
       </c>
       <c r="F30" s="19">
         <v>0</v>
@@ -1248,29 +1248,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>0</v>
+        <v>13747403</v>
       </c>
       <c r="F31" s="15">
-        <v>13747403</v>
+        <v>13343099</v>
       </c>
       <c r="G31" s="15">
-        <v>13343099</v>
+        <v>13261745</v>
       </c>
       <c r="H31" s="15">
-        <v>13261745</v>
+        <v>12751651</v>
       </c>
       <c r="I31" s="15">
-        <v>12751651</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13570286</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1280,7 +1280,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1290,7 +1290,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1300,7 +1300,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>35</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1332,7 +1332,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>36</v>
       </c>
@@ -1344,7 +1344,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>11</v>
       </c>
@@ -1352,119 +1352,119 @@
         <v>37</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="11">
+        <v>24109562</v>
+      </c>
+      <c r="F38" s="11">
+        <v>27929151</v>
+      </c>
+      <c r="G38" s="11">
+        <v>36601675</v>
+      </c>
+      <c r="H38" s="11">
+        <v>64947129</v>
+      </c>
+      <c r="I38" s="11">
+        <v>92760770</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="11">
-        <v>24109562</v>
-      </c>
-      <c r="G38" s="11">
-        <v>27929151</v>
-      </c>
-      <c r="H38" s="11">
-        <v>36601675</v>
-      </c>
-      <c r="I38" s="11">
-        <v>64947129</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="12" t="s">
+      <c r="C39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13">
+        <v>9927889</v>
+      </c>
+      <c r="F39" s="13">
+        <v>12379747</v>
+      </c>
+      <c r="G39" s="13">
+        <v>7474661</v>
+      </c>
+      <c r="H39" s="13">
+        <v>9929174</v>
+      </c>
+      <c r="I39" s="13">
+        <v>12668341</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="13">
-        <v>9927889</v>
-      </c>
-      <c r="G39" s="13">
-        <v>12379747</v>
-      </c>
-      <c r="H39" s="13">
-        <v>7474661</v>
-      </c>
-      <c r="I39" s="13">
-        <v>9929174</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
+      <c r="C40" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11">
+        <v>304806</v>
+      </c>
+      <c r="F40" s="11">
+        <v>206169</v>
+      </c>
+      <c r="G40" s="11">
+        <v>547430</v>
+      </c>
+      <c r="H40" s="11">
+        <v>1551021</v>
+      </c>
+      <c r="I40" s="11">
+        <v>2186231</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="11">
-        <v>304806</v>
-      </c>
-      <c r="G40" s="11">
-        <v>206169</v>
-      </c>
-      <c r="H40" s="11">
-        <v>547430</v>
-      </c>
-      <c r="I40" s="11">
-        <v>1551021</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="12" t="s">
+      <c r="C41" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13">
+        <v>9789108</v>
+      </c>
+      <c r="F41" s="13">
+        <v>12859284</v>
+      </c>
+      <c r="G41" s="13">
+        <v>19688390</v>
+      </c>
+      <c r="H41" s="13">
+        <v>40788758</v>
+      </c>
+      <c r="I41" s="13">
+        <v>45747409</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="13">
-        <v>9789108</v>
-      </c>
-      <c r="G41" s="13">
-        <v>12859284</v>
-      </c>
-      <c r="H41" s="13">
-        <v>19688390</v>
-      </c>
-      <c r="I41" s="13">
-        <v>40788758</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="H42" s="11">
+        <v>104680</v>
       </c>
       <c r="I42" s="11">
-        <v>104680</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>18</v>
       </c>
@@ -1472,23 +1472,23 @@
         <v>37</v>
       </c>
       <c r="D43" s="13"/>
-      <c r="E43" s="13" t="s">
-        <v>13</v>
+      <c r="E43" s="13">
+        <v>4538440</v>
       </c>
       <c r="F43" s="13">
-        <v>4538440</v>
+        <v>4256087</v>
       </c>
       <c r="G43" s="13">
-        <v>4256087</v>
+        <v>7462885</v>
       </c>
       <c r="H43" s="13">
-        <v>7462885</v>
+        <v>33414601</v>
       </c>
       <c r="I43" s="13">
-        <v>33414601</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>38815193</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>19</v>
       </c>
@@ -1496,23 +1496,23 @@
         <v>37</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>13</v>
+      <c r="E44" s="11">
+        <v>902300</v>
       </c>
       <c r="F44" s="11">
-        <v>902300</v>
+        <v>437030</v>
       </c>
       <c r="G44" s="11">
-        <v>437030</v>
+        <v>691887</v>
       </c>
       <c r="H44" s="11">
-        <v>691887</v>
+        <v>325514</v>
       </c>
       <c r="I44" s="11">
-        <v>325514</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>155302</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>20</v>
       </c>
@@ -1520,23 +1520,23 @@
         <v>37</v>
       </c>
       <c r="D45" s="13"/>
-      <c r="E45" s="13" t="s">
-        <v>13</v>
+      <c r="E45" s="13">
+        <v>50208595</v>
       </c>
       <c r="F45" s="13">
-        <v>50208595</v>
+        <v>74034210</v>
       </c>
       <c r="G45" s="13">
-        <v>74034210</v>
+        <v>110485752</v>
       </c>
       <c r="H45" s="13">
-        <v>110485752</v>
+        <v>235437553</v>
       </c>
       <c r="I45" s="13">
-        <v>235437553</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>270761722</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>21</v>
       </c>
@@ -1544,23 +1544,23 @@
         <v>37</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
-        <v>13</v>
+      <c r="E46" s="11">
+        <v>63295300</v>
       </c>
       <c r="F46" s="11">
-        <v>63295300</v>
+        <v>101289086</v>
       </c>
       <c r="G46" s="11">
-        <v>101289086</v>
+        <v>140596359</v>
       </c>
       <c r="H46" s="11">
-        <v>140596359</v>
+        <v>269042099</v>
       </c>
       <c r="I46" s="11">
-        <v>269042099</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>383032942</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>22</v>
       </c>
@@ -1568,23 +1568,23 @@
         <v>37</v>
       </c>
       <c r="D47" s="13"/>
-      <c r="E47" s="13" t="s">
-        <v>13</v>
+      <c r="E47" s="13">
+        <v>551445</v>
       </c>
       <c r="F47" s="13">
-        <v>551445</v>
+        <v>1027521</v>
       </c>
       <c r="G47" s="13">
-        <v>1027521</v>
+        <v>1714104</v>
       </c>
       <c r="H47" s="13">
-        <v>1714104</v>
+        <v>1789157</v>
       </c>
       <c r="I47" s="13">
-        <v>1789157</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2622539</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>23</v>
       </c>
@@ -1592,23 +1592,23 @@
         <v>37</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
-        <v>13</v>
+      <c r="E48" s="11">
+        <v>26434002</v>
       </c>
       <c r="F48" s="11">
-        <v>26434002</v>
+        <v>33980367</v>
       </c>
       <c r="G48" s="11">
-        <v>33980367</v>
+        <v>29394776</v>
       </c>
       <c r="H48" s="11">
-        <v>29394776</v>
+        <v>84869988</v>
       </c>
       <c r="I48" s="11">
-        <v>84869988</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>133455317</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>24</v>
       </c>
@@ -1616,23 +1616,23 @@
         <v>37</v>
       </c>
       <c r="D49" s="13"/>
-      <c r="E49" s="13" t="s">
-        <v>13</v>
+      <c r="E49" s="13">
+        <v>22520854</v>
       </c>
       <c r="F49" s="13">
-        <v>22520854</v>
+        <v>29860241</v>
       </c>
       <c r="G49" s="13">
-        <v>29860241</v>
+        <v>45453175</v>
       </c>
       <c r="H49" s="13">
-        <v>45453175</v>
+        <v>83346521</v>
       </c>
       <c r="I49" s="13">
-        <v>83346521</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116039399</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>25</v>
       </c>
@@ -1640,45 +1640,45 @@
         <v>37</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>13</v>
+      <c r="E50" s="11">
+        <v>155411897</v>
       </c>
       <c r="F50" s="11">
-        <v>155411897</v>
+        <v>263469277</v>
       </c>
       <c r="G50" s="11">
-        <v>263469277</v>
+        <v>322913229</v>
       </c>
       <c r="H50" s="11">
-        <v>322913229</v>
+        <v>586860714</v>
       </c>
       <c r="I50" s="11">
-        <v>586860714</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1102870705</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
-        <v>0</v>
+        <v>367994198</v>
       </c>
       <c r="F51" s="15">
-        <v>367994198</v>
+        <v>561728170</v>
       </c>
       <c r="G51" s="15">
-        <v>561728170</v>
+        <v>723024323</v>
       </c>
       <c r="H51" s="15">
-        <v>723024323</v>
+        <v>1412406909</v>
       </c>
       <c r="I51" s="15">
-        <v>1412406909</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2201115870</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="16" t="s">
         <v>38</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="18" t="s">
         <v>28</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="16" t="s">
         <v>39</v>
       </c>
@@ -1724,7 +1724,7 @@
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="18" t="s">
         <v>30</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>31</v>
       </c>
@@ -1754,8 +1754,8 @@
         <v>37</v>
       </c>
       <c r="D56" s="15"/>
-      <c r="E56" s="15" t="s">
-        <v>13</v>
+      <c r="E56" s="15">
+        <v>0</v>
       </c>
       <c r="F56" s="15">
         <v>0</v>
@@ -1763,14 +1763,14 @@
       <c r="G56" s="15">
         <v>0</v>
       </c>
-      <c r="H56" s="15">
-        <v>0</v>
+      <c r="H56" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="18" t="s">
         <v>33</v>
       </c>
@@ -1778,8 +1778,8 @@
         <v>37</v>
       </c>
       <c r="D57" s="19"/>
-      <c r="E57" s="19" t="s">
-        <v>13</v>
+      <c r="E57" s="19">
+        <v>0</v>
       </c>
       <c r="F57" s="19">
         <v>0</v>
@@ -1794,29 +1794,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15">
-        <v>0</v>
+        <v>367994198</v>
       </c>
       <c r="F58" s="15">
-        <v>367994198</v>
+        <v>561728170</v>
       </c>
       <c r="G58" s="15">
-        <v>561728170</v>
+        <v>723024323</v>
       </c>
       <c r="H58" s="15">
-        <v>723024323</v>
+        <v>1412406909</v>
       </c>
       <c r="I58" s="15">
-        <v>1412406909</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2201115870</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1826,7 +1826,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1836,7 +1836,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1846,7 +1846,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>40</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1878,7 +1878,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>41</v>
       </c>
@@ -1890,7 +1890,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>11</v>
       </c>
@@ -1898,119 +1898,119 @@
         <v>42</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="11">
+        <v>19112836</v>
+      </c>
+      <c r="F65" s="11">
+        <v>25581791</v>
+      </c>
+      <c r="G65" s="11">
+        <v>37684657</v>
+      </c>
+      <c r="H65" s="11">
+        <v>72767120</v>
+      </c>
+      <c r="I65" s="11">
+        <v>88664387</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F65" s="11">
-        <v>19112836</v>
-      </c>
-      <c r="G65" s="11">
-        <v>25581791</v>
-      </c>
-      <c r="H65" s="11">
-        <v>37684657</v>
-      </c>
-      <c r="I65" s="11">
-        <v>72767120</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B66" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D66" s="13"/>
-      <c r="E66" s="13" t="s">
-        <v>13</v>
+      <c r="E66" s="13">
+        <v>35880521</v>
       </c>
       <c r="F66" s="13">
-        <v>35880521</v>
+        <v>49577291</v>
       </c>
       <c r="G66" s="13">
-        <v>49577291</v>
+        <v>57034970</v>
       </c>
       <c r="H66" s="13">
-        <v>57034970</v>
+        <v>132415470</v>
       </c>
       <c r="I66" s="13">
-        <v>132415470</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>201773369</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>13</v>
+      <c r="E67" s="11">
+        <v>13008109</v>
       </c>
       <c r="F67" s="11">
-        <v>13008109</v>
+        <v>8203772</v>
       </c>
       <c r="G67" s="11">
-        <v>8203772</v>
+        <v>22648215</v>
       </c>
       <c r="H67" s="11">
-        <v>22648215</v>
+        <v>47392703</v>
       </c>
       <c r="I67" s="11">
-        <v>47392703</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>57453774</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D68" s="13"/>
-      <c r="E68" s="13" t="s">
-        <v>13</v>
+      <c r="E68" s="13">
+        <v>16816941</v>
       </c>
       <c r="F68" s="13">
-        <v>16816941</v>
+        <v>24564010</v>
       </c>
       <c r="G68" s="13">
-        <v>24564010</v>
+        <v>34134002</v>
       </c>
       <c r="H68" s="13">
-        <v>34134002</v>
+        <v>84186628</v>
       </c>
       <c r="I68" s="13">
-        <v>84186628</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>92739944</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="H69" s="11">
+        <v>114030501</v>
       </c>
       <c r="I69" s="11">
-        <v>114030501</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>18</v>
       </c>
@@ -2018,23 +2018,23 @@
         <v>42</v>
       </c>
       <c r="D70" s="13"/>
-      <c r="E70" s="13" t="s">
-        <v>13</v>
+      <c r="E70" s="13">
+        <v>22314746</v>
       </c>
       <c r="F70" s="13">
-        <v>22314746</v>
+        <v>36263064</v>
       </c>
       <c r="G70" s="13">
-        <v>36263064</v>
+        <v>47028666</v>
       </c>
       <c r="H70" s="13">
-        <v>47028666</v>
+        <v>91429622</v>
       </c>
       <c r="I70" s="13">
-        <v>91429622</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>120216283</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>19</v>
       </c>
@@ -2042,23 +2042,23 @@
         <v>42</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
-        <v>13</v>
+      <c r="E71" s="11">
+        <v>30001663</v>
       </c>
       <c r="F71" s="11">
-        <v>30001663</v>
+        <v>49986275</v>
       </c>
       <c r="G71" s="11">
-        <v>49986275</v>
+        <v>54781235</v>
       </c>
       <c r="H71" s="11">
-        <v>54781235</v>
+        <v>95711261</v>
       </c>
       <c r="I71" s="11">
-        <v>95711261</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>190088127</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>20</v>
       </c>
@@ -2066,23 +2066,23 @@
         <v>42</v>
       </c>
       <c r="D72" s="13"/>
-      <c r="E72" s="13" t="s">
-        <v>13</v>
+      <c r="E72" s="13">
+        <v>23531918</v>
       </c>
       <c r="F72" s="13">
-        <v>23531918</v>
+        <v>32828107</v>
       </c>
       <c r="G72" s="13">
-        <v>32828107</v>
+        <v>47769690</v>
       </c>
       <c r="H72" s="13">
-        <v>47769690</v>
+        <v>97318607</v>
       </c>
       <c r="I72" s="13">
-        <v>97318607</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>108685436</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>21</v>
       </c>
@@ -2090,23 +2090,23 @@
         <v>42</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
-        <v>13</v>
+      <c r="E73" s="11">
+        <v>25825266</v>
       </c>
       <c r="F73" s="11">
-        <v>25825266</v>
+        <v>43697456</v>
       </c>
       <c r="G73" s="11">
-        <v>43697456</v>
+        <v>54253683</v>
       </c>
       <c r="H73" s="11">
-        <v>54253683</v>
+        <v>122454171</v>
       </c>
       <c r="I73" s="11">
-        <v>122454171</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+        <v>166566116</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>22</v>
       </c>
@@ -2114,23 +2114,23 @@
         <v>42</v>
       </c>
       <c r="D74" s="13"/>
-      <c r="E74" s="13" t="s">
-        <v>13</v>
+      <c r="E74" s="13">
+        <v>31155085</v>
       </c>
       <c r="F74" s="13">
-        <v>31155085</v>
+        <v>50676711</v>
       </c>
       <c r="G74" s="13">
-        <v>50676711</v>
+        <v>58302857</v>
       </c>
       <c r="H74" s="13">
-        <v>58302857</v>
+        <v>135768478</v>
       </c>
       <c r="I74" s="13">
-        <v>135768478</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>202075744</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>23</v>
       </c>
@@ -2138,23 +2138,23 @@
         <v>42</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
-        <v>13</v>
+      <c r="E75" s="11">
+        <v>29980279</v>
       </c>
       <c r="F75" s="11">
-        <v>29980279</v>
+        <v>49643844</v>
       </c>
       <c r="G75" s="11">
-        <v>49643844</v>
+        <v>56501794</v>
       </c>
       <c r="H75" s="11">
-        <v>56501794</v>
+        <v>114425839</v>
       </c>
       <c r="I75" s="11">
-        <v>114425839</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+        <v>211377195</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>24</v>
       </c>
@@ -2162,23 +2162,23 @@
         <v>42</v>
       </c>
       <c r="D76" s="13"/>
-      <c r="E76" s="13" t="s">
-        <v>13</v>
+      <c r="E76" s="13">
+        <v>26533299</v>
       </c>
       <c r="F76" s="13">
-        <v>26533299</v>
+        <v>37642107</v>
       </c>
       <c r="G76" s="13">
-        <v>37642107</v>
+        <v>54596310</v>
       </c>
       <c r="H76" s="13">
-        <v>54596310</v>
+        <v>101224732</v>
       </c>
       <c r="I76" s="13">
-        <v>101224732</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>127572319</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>25</v>
       </c>
@@ -2186,23 +2186,23 @@
         <v>42</v>
       </c>
       <c r="D77" s="11"/>
-      <c r="E77" s="11" t="s">
-        <v>13</v>
+      <c r="E77" s="11">
+        <v>30850660</v>
       </c>
       <c r="F77" s="11">
-        <v>30850660</v>
+        <v>50130245</v>
       </c>
       <c r="G77" s="11">
-        <v>50130245</v>
+        <v>63308623</v>
       </c>
       <c r="H77" s="11">
-        <v>63308623</v>
+        <v>124796990</v>
       </c>
       <c r="I77" s="11">
-        <v>124796990</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>209611342</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2212,7 +2212,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2222,7 +2222,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2232,7 +2232,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
         <v>43</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2264,7 +2264,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>44</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>11</v>
       </c>
@@ -2284,119 +2284,119 @@
         <v>37</v>
       </c>
       <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="11">
+        <v>-20585504</v>
+      </c>
+      <c r="F84" s="11">
+        <v>-24940411</v>
+      </c>
+      <c r="G84" s="11">
+        <v>-33031947</v>
+      </c>
+      <c r="H84" s="11">
+        <v>-55935794</v>
+      </c>
+      <c r="I84" s="11">
+        <v>-75520584</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="11">
-        <v>-20585504</v>
-      </c>
-      <c r="G84" s="11">
-        <v>-24940411</v>
-      </c>
-      <c r="H84" s="11">
-        <v>-33031947</v>
-      </c>
-      <c r="I84" s="11">
-        <v>-55935794</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B85" s="12" t="s">
+      <c r="C85" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13">
+        <v>-6975992</v>
+      </c>
+      <c r="F85" s="13">
+        <v>-10638841</v>
+      </c>
+      <c r="G85" s="13">
+        <v>-6272077</v>
+      </c>
+      <c r="H85" s="13">
+        <v>-8169453</v>
+      </c>
+      <c r="I85" s="13">
+        <v>-10120555</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C85" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="13">
-        <v>-6975992</v>
-      </c>
-      <c r="G85" s="13">
-        <v>-10638841</v>
-      </c>
-      <c r="H85" s="13">
-        <v>-6272077</v>
-      </c>
-      <c r="I85" s="13">
-        <v>-8169453</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B86" s="10" t="s">
+      <c r="C86" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11">
+        <v>-291568</v>
+      </c>
+      <c r="F86" s="11">
+        <v>-203550</v>
+      </c>
+      <c r="G86" s="11">
+        <v>-506639</v>
+      </c>
+      <c r="H86" s="11">
+        <v>-1460408</v>
+      </c>
+      <c r="I86" s="11">
+        <v>-1898665</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B87" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="11">
-        <v>-291568</v>
-      </c>
-      <c r="G86" s="11">
-        <v>-203550</v>
-      </c>
-      <c r="H86" s="11">
-        <v>-506639</v>
-      </c>
-      <c r="I86" s="11">
-        <v>-1460408</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B87" s="12" t="s">
+      <c r="C87" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13">
+        <v>-8859783</v>
+      </c>
+      <c r="F87" s="13">
+        <v>-12135028</v>
+      </c>
+      <c r="G87" s="13">
+        <v>-17830992</v>
+      </c>
+      <c r="H87" s="13">
+        <v>-36979307</v>
+      </c>
+      <c r="I87" s="13">
+        <v>-41940776</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B88" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="13">
-        <v>-8859783</v>
-      </c>
-      <c r="G87" s="13">
-        <v>-12135028</v>
-      </c>
-      <c r="H87" s="13">
-        <v>-17830992</v>
-      </c>
-      <c r="I87" s="13">
-        <v>-36979307</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B88" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="H88" s="11">
+        <v>-92304</v>
       </c>
       <c r="I88" s="11">
-        <v>-92304</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>18</v>
       </c>
@@ -2404,23 +2404,23 @@
         <v>37</v>
       </c>
       <c r="D89" s="13"/>
-      <c r="E89" s="13" t="s">
-        <v>13</v>
+      <c r="E89" s="13">
+        <v>-3973769</v>
       </c>
       <c r="F89" s="13">
-        <v>-3973769</v>
+        <v>-3861904</v>
       </c>
       <c r="G89" s="13">
-        <v>-3861904</v>
+        <v>-6103602</v>
       </c>
       <c r="H89" s="13">
-        <v>-6103602</v>
+        <v>-31113715</v>
       </c>
       <c r="I89" s="13">
-        <v>-31113715</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-32368520</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>19</v>
       </c>
@@ -2428,23 +2428,23 @@
         <v>37</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
-        <v>13</v>
+      <c r="E90" s="11">
+        <v>-815185</v>
       </c>
       <c r="F90" s="11">
-        <v>-815185</v>
+        <v>-413791</v>
       </c>
       <c r="G90" s="11">
-        <v>-413791</v>
+        <v>-634196</v>
       </c>
       <c r="H90" s="11">
-        <v>-634196</v>
+        <v>-322854</v>
       </c>
       <c r="I90" s="11">
-        <v>-322854</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-145217</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>20</v>
       </c>
@@ -2452,23 +2452,23 @@
         <v>37</v>
       </c>
       <c r="D91" s="13"/>
-      <c r="E91" s="13" t="s">
-        <v>13</v>
+      <c r="E91" s="13">
+        <v>-43683855</v>
       </c>
       <c r="F91" s="13">
-        <v>-43683855</v>
+        <v>-69082264</v>
       </c>
       <c r="G91" s="13">
-        <v>-69082264</v>
+        <v>-90029483</v>
       </c>
       <c r="H91" s="13">
-        <v>-90029483</v>
+        <v>-209000920</v>
       </c>
       <c r="I91" s="13">
-        <v>-209000920</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-246371539</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>21</v>
       </c>
@@ -2476,23 +2476,23 @@
         <v>37</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>13</v>
+      <c r="E92" s="11">
+        <v>-55401498</v>
       </c>
       <c r="F92" s="11">
-        <v>-55401498</v>
+        <v>-90607704</v>
       </c>
       <c r="G92" s="11">
-        <v>-90607704</v>
+        <v>-118897877</v>
       </c>
       <c r="H92" s="11">
-        <v>-118897877</v>
+        <v>-239554802</v>
       </c>
       <c r="I92" s="11">
-        <v>-239554802</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-330476426</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>22</v>
       </c>
@@ -2500,23 +2500,23 @@
         <v>37</v>
       </c>
       <c r="D93" s="13"/>
-      <c r="E93" s="13" t="s">
-        <v>13</v>
+      <c r="E93" s="13">
+        <v>-327383</v>
       </c>
       <c r="F93" s="13">
-        <v>-327383</v>
+        <v>-770314</v>
       </c>
       <c r="G93" s="13">
-        <v>-770314</v>
+        <v>-1348622</v>
       </c>
       <c r="H93" s="13">
-        <v>-1348622</v>
+        <v>-1183204</v>
       </c>
       <c r="I93" s="13">
-        <v>-1183204</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2020957</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>23</v>
       </c>
@@ -2524,23 +2524,23 @@
         <v>37</v>
       </c>
       <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
-        <v>13</v>
+      <c r="E94" s="11">
+        <v>-22911816</v>
       </c>
       <c r="F94" s="11">
-        <v>-22911816</v>
+        <v>-30403628</v>
       </c>
       <c r="G94" s="11">
-        <v>-30403628</v>
+        <v>-24606352</v>
       </c>
       <c r="H94" s="11">
-        <v>-24606352</v>
+        <v>-79140478</v>
       </c>
       <c r="I94" s="11">
-        <v>-79140478</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-108664258</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>24</v>
       </c>
@@ -2548,23 +2548,23 @@
         <v>37</v>
       </c>
       <c r="D95" s="13"/>
-      <c r="E95" s="13" t="s">
-        <v>13</v>
+      <c r="E95" s="13">
+        <v>-18941815</v>
       </c>
       <c r="F95" s="13">
-        <v>-18941815</v>
+        <v>-27841167</v>
       </c>
       <c r="G95" s="13">
-        <v>-27841167</v>
+        <v>-42986837</v>
       </c>
       <c r="H95" s="13">
-        <v>-42986837</v>
+        <v>-77986241</v>
       </c>
       <c r="I95" s="13">
-        <v>-77986241</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-103772588</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>25</v>
       </c>
@@ -2572,45 +2572,45 @@
         <v>37</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
-        <v>13</v>
+      <c r="E96" s="11">
+        <v>-147498142</v>
       </c>
       <c r="F96" s="11">
-        <v>-147498142</v>
+        <v>-251407631</v>
       </c>
       <c r="G96" s="11">
-        <v>-251407631</v>
+        <v>-294477936</v>
       </c>
       <c r="H96" s="11">
-        <v>-294477936</v>
+        <v>-535296847</v>
       </c>
       <c r="I96" s="11">
-        <v>-535296847</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-985970515</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C97" s="15"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15">
-        <v>0</v>
+        <v>-330266310</v>
       </c>
       <c r="F97" s="15">
-        <v>-330266310</v>
+        <v>-522306233</v>
       </c>
       <c r="G97" s="15">
-        <v>-522306233</v>
+        <v>-636726560</v>
       </c>
       <c r="H97" s="15">
-        <v>-636726560</v>
+        <v>-1276236327</v>
       </c>
       <c r="I97" s="15">
-        <v>-1276236327</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1939270600</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="16" t="s">
         <v>46</v>
       </c>
@@ -2622,7 +2622,7 @@
       <c r="H98" s="17"/>
       <c r="I98" s="17"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="18" t="s">
         <v>47</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="16" t="s">
         <v>48</v>
       </c>
@@ -2656,7 +2656,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="18" t="s">
         <v>49</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="14" t="s">
         <v>31</v>
       </c>
@@ -2686,8 +2686,8 @@
         <v>37</v>
       </c>
       <c r="D102" s="15"/>
-      <c r="E102" s="15" t="s">
-        <v>13</v>
+      <c r="E102" s="15">
+        <v>0</v>
       </c>
       <c r="F102" s="15">
         <v>0</v>
@@ -2695,14 +2695,14 @@
       <c r="G102" s="15">
         <v>0</v>
       </c>
-      <c r="H102" s="15">
-        <v>0</v>
+      <c r="H102" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="I102" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="18" t="s">
         <v>33</v>
       </c>
@@ -2710,8 +2710,8 @@
         <v>37</v>
       </c>
       <c r="D103" s="19"/>
-      <c r="E103" s="19" t="s">
-        <v>13</v>
+      <c r="E103" s="19">
+        <v>0</v>
       </c>
       <c r="F103" s="19">
         <v>0</v>
@@ -2726,29 +2726,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15">
-        <v>0</v>
+        <v>-330266310</v>
       </c>
       <c r="F104" s="15">
-        <v>-330266310</v>
+        <v>-522306233</v>
       </c>
       <c r="G104" s="15">
-        <v>-522306233</v>
+        <v>-636726560</v>
       </c>
       <c r="H104" s="15">
-        <v>-636726560</v>
+        <v>-1276236327</v>
       </c>
       <c r="I104" s="15">
-        <v>-1276236327</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1939270600</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2758,7 +2758,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2768,7 +2768,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2778,7 +2778,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B108" s="7" t="s">
         <v>50</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2810,7 +2810,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>51</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>11</v>
       </c>
@@ -2830,119 +2830,119 @@
         <v>37</v>
       </c>
       <c r="D111" s="11"/>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="11">
+        <v>3524058</v>
+      </c>
+      <c r="F111" s="11">
+        <v>2988740</v>
+      </c>
+      <c r="G111" s="11">
+        <v>3569728</v>
+      </c>
+      <c r="H111" s="11">
+        <v>9011335</v>
+      </c>
+      <c r="I111" s="11">
+        <v>17240186</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B112" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F111" s="11">
-        <v>3524058</v>
-      </c>
-      <c r="G111" s="11">
-        <v>2988740</v>
-      </c>
-      <c r="H111" s="11">
-        <v>3569728</v>
-      </c>
-      <c r="I111" s="11">
-        <v>9011335</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B112" s="12" t="s">
+      <c r="C112" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13">
+        <v>2951897</v>
+      </c>
+      <c r="F112" s="13">
+        <v>1740906</v>
+      </c>
+      <c r="G112" s="13">
+        <v>1202584</v>
+      </c>
+      <c r="H112" s="13">
+        <v>1759721</v>
+      </c>
+      <c r="I112" s="13">
+        <v>2547786</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B113" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F112" s="13">
-        <v>2951897</v>
-      </c>
-      <c r="G112" s="13">
-        <v>1740906</v>
-      </c>
-      <c r="H112" s="13">
-        <v>1202584</v>
-      </c>
-      <c r="I112" s="13">
-        <v>1759721</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B113" s="10" t="s">
+      <c r="C113" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11">
+        <v>13238</v>
+      </c>
+      <c r="F113" s="11">
+        <v>2619</v>
+      </c>
+      <c r="G113" s="11">
+        <v>40791</v>
+      </c>
+      <c r="H113" s="11">
+        <v>90613</v>
+      </c>
+      <c r="I113" s="11">
+        <v>287566</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B114" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C113" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" s="11">
-        <v>13238</v>
-      </c>
-      <c r="G113" s="11">
-        <v>2619</v>
-      </c>
-      <c r="H113" s="11">
-        <v>40791</v>
-      </c>
-      <c r="I113" s="11">
-        <v>90613</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B114" s="12" t="s">
+      <c r="C114" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D114" s="13"/>
+      <c r="E114" s="13">
+        <v>929325</v>
+      </c>
+      <c r="F114" s="13">
+        <v>724256</v>
+      </c>
+      <c r="G114" s="13">
+        <v>1857398</v>
+      </c>
+      <c r="H114" s="13">
+        <v>3809451</v>
+      </c>
+      <c r="I114" s="13">
+        <v>3806633</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B115" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" s="13">
-        <v>929325</v>
-      </c>
-      <c r="G114" s="13">
-        <v>724256</v>
-      </c>
-      <c r="H114" s="13">
-        <v>1857398</v>
-      </c>
-      <c r="I114" s="13">
-        <v>3809451</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B115" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H115" s="11" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="H115" s="11">
+        <v>12376</v>
       </c>
       <c r="I115" s="11">
-        <v>12376</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>18</v>
       </c>
@@ -2950,23 +2950,23 @@
         <v>37</v>
       </c>
       <c r="D116" s="13"/>
-      <c r="E116" s="13" t="s">
-        <v>13</v>
+      <c r="E116" s="13">
+        <v>564671</v>
       </c>
       <c r="F116" s="13">
-        <v>564671</v>
+        <v>394183</v>
       </c>
       <c r="G116" s="13">
-        <v>394183</v>
+        <v>1359283</v>
       </c>
       <c r="H116" s="13">
-        <v>1359283</v>
+        <v>2300886</v>
       </c>
       <c r="I116" s="13">
-        <v>2300886</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6446673</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>19</v>
       </c>
@@ -2974,23 +2974,23 @@
         <v>37</v>
       </c>
       <c r="D117" s="11"/>
-      <c r="E117" s="11" t="s">
-        <v>13</v>
+      <c r="E117" s="11">
+        <v>87115</v>
       </c>
       <c r="F117" s="11">
-        <v>87115</v>
+        <v>23239</v>
       </c>
       <c r="G117" s="11">
-        <v>23239</v>
+        <v>57691</v>
       </c>
       <c r="H117" s="11">
-        <v>57691</v>
+        <v>2660</v>
       </c>
       <c r="I117" s="11">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10085</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>20</v>
       </c>
@@ -2998,23 +2998,23 @@
         <v>37</v>
       </c>
       <c r="D118" s="13"/>
-      <c r="E118" s="13" t="s">
-        <v>13</v>
+      <c r="E118" s="13">
+        <v>6524740</v>
       </c>
       <c r="F118" s="13">
-        <v>6524740</v>
+        <v>4951946</v>
       </c>
       <c r="G118" s="13">
-        <v>4951946</v>
+        <v>20456269</v>
       </c>
       <c r="H118" s="13">
-        <v>20456269</v>
+        <v>26436633</v>
       </c>
       <c r="I118" s="13">
-        <v>26436633</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24390183</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>21</v>
       </c>
@@ -3022,23 +3022,23 @@
         <v>37</v>
       </c>
       <c r="D119" s="11"/>
-      <c r="E119" s="11" t="s">
-        <v>13</v>
+      <c r="E119" s="11">
+        <v>7893802</v>
       </c>
       <c r="F119" s="11">
-        <v>7893802</v>
+        <v>10681382</v>
       </c>
       <c r="G119" s="11">
-        <v>10681382</v>
+        <v>21698482</v>
       </c>
       <c r="H119" s="11">
-        <v>21698482</v>
+        <v>29487297</v>
       </c>
       <c r="I119" s="11">
-        <v>29487297</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>52556516</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>22</v>
       </c>
@@ -3046,23 +3046,23 @@
         <v>37</v>
       </c>
       <c r="D120" s="13"/>
-      <c r="E120" s="13" t="s">
-        <v>13</v>
+      <c r="E120" s="13">
+        <v>224062</v>
       </c>
       <c r="F120" s="13">
-        <v>224062</v>
+        <v>257207</v>
       </c>
       <c r="G120" s="13">
-        <v>257207</v>
+        <v>365482</v>
       </c>
       <c r="H120" s="13">
-        <v>365482</v>
+        <v>605953</v>
       </c>
       <c r="I120" s="13">
-        <v>605953</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>601582</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>23</v>
       </c>
@@ -3070,23 +3070,23 @@
         <v>37</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11" t="s">
-        <v>13</v>
+      <c r="E121" s="11">
+        <v>3522186</v>
       </c>
       <c r="F121" s="11">
-        <v>3522186</v>
+        <v>3576739</v>
       </c>
       <c r="G121" s="11">
-        <v>3576739</v>
+        <v>4788424</v>
       </c>
       <c r="H121" s="11">
-        <v>4788424</v>
+        <v>5729510</v>
       </c>
       <c r="I121" s="11">
-        <v>5729510</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>24791059</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
         <v>24</v>
       </c>
@@ -3094,23 +3094,23 @@
         <v>37</v>
       </c>
       <c r="D122" s="13"/>
-      <c r="E122" s="13" t="s">
-        <v>13</v>
+      <c r="E122" s="13">
+        <v>3579039</v>
       </c>
       <c r="F122" s="13">
-        <v>3579039</v>
+        <v>2019074</v>
       </c>
       <c r="G122" s="13">
-        <v>2019074</v>
+        <v>2466338</v>
       </c>
       <c r="H122" s="13">
-        <v>2466338</v>
+        <v>5360280</v>
       </c>
       <c r="I122" s="13">
-        <v>5360280</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>12266811</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="10" t="s">
         <v>25</v>
       </c>
@@ -3118,45 +3118,45 @@
         <v>37</v>
       </c>
       <c r="D123" s="11"/>
-      <c r="E123" s="11" t="s">
-        <v>13</v>
+      <c r="E123" s="11">
+        <v>7913755</v>
       </c>
       <c r="F123" s="11">
-        <v>7913755</v>
+        <v>12061646</v>
       </c>
       <c r="G123" s="11">
-        <v>12061646</v>
+        <v>28435293</v>
       </c>
       <c r="H123" s="11">
-        <v>28435293</v>
+        <v>51563867</v>
       </c>
       <c r="I123" s="11">
-        <v>51563867</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116900190</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C124" s="15"/>
       <c r="D124" s="15"/>
       <c r="E124" s="15">
-        <v>0</v>
+        <v>37727888</v>
       </c>
       <c r="F124" s="15">
-        <v>37727888</v>
+        <v>39421937</v>
       </c>
       <c r="G124" s="15">
-        <v>39421937</v>
+        <v>86297763</v>
       </c>
       <c r="H124" s="15">
-        <v>86297763</v>
+        <v>136170582</v>
       </c>
       <c r="I124" s="15">
-        <v>136170582</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>261845270</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="16" t="s">
         <v>53</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="H125" s="17"/>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="18" t="s">
         <v>54</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="16" t="s">
         <v>55</v>
       </c>
@@ -3202,7 +3202,7 @@
       <c r="H127" s="17"/>
       <c r="I127" s="17"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="18" t="s">
         <v>56</v>
       </c>
@@ -3224,26 +3224,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15">
-        <v>0</v>
+        <v>37727888</v>
       </c>
       <c r="F129" s="15">
-        <v>37727888</v>
+        <v>39421937</v>
       </c>
       <c r="G129" s="15">
-        <v>39421937</v>
+        <v>86297763</v>
       </c>
       <c r="H129" s="15">
-        <v>86297763</v>
+        <v>136170582</v>
       </c>
       <c r="I129" s="15">
-        <v>136170582</v>
+        <v>261845270</v>
       </c>
     </row>
   </sheetData>
